--- a/Database/helperland_db.xlsx
+++ b/Database/helperland_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs Data\Web Development\Tatvasoft\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF9A01F-DD23-4257-BDC0-BEB3E918B595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60BDFF0-E1DA-4818-923A-48792E3F548B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="703" firstSheet="3" activeTab="5" xr2:uid="{C8E0032A-6633-4229-9232-6C1B60A361C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="703" firstSheet="5" activeTab="13" xr2:uid="{C8E0032A-6633-4229-9232-6C1B60A361C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="3" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="Contact US" sheetId="10" r:id="rId10"/>
     <sheet name="Reminder" sheetId="11" r:id="rId11"/>
     <sheet name="FAQs" sheetId="16" r:id="rId12"/>
+    <sheet name="Favorite SP" sheetId="17" r:id="rId13"/>
+    <sheet name="Blocklist" sheetId="18" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="84">
   <si>
     <t>Email</t>
   </si>
@@ -296,13 +298,26 @@
   </si>
   <si>
     <t>customer id</t>
+  </si>
+  <si>
+    <t>Favorite Service Provider</t>
+  </si>
+  <si>
+    <t>service provider id</t>
+  </si>
+  <si>
+    <t>Foreign Key ( Account
+Details -&gt; user id )</t>
+  </si>
+  <si>
+    <t>Blocklist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +353,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -365,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -375,6 +397,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -977,7 +1002,7 @@
   <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1032,6 +1057,143 @@
       </c>
       <c r="C9" t="s">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B7A85B-3583-4180-A509-8CC5FA2C3082}">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="5" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951DEDD2-1435-4ECE-AA09-2500A13453CC}">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="5" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1421,7 +1583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE2B90E-E4E2-4C78-AD7F-BBFAD62B98F0}">
   <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="AB1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
